--- a/list.xlsx
+++ b/list.xlsx
@@ -1,37 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poojitha Sri\Job_Docs\Git\NotifyCareerPortalsUpdate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6608685-35C2-4E9C-9480-074EAAE77E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Companies_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>https://www.tu-chemnitz.de/career-service/jobboerse/index.php</t>
+  </si>
+  <si>
+    <t>Could not reach host. Are you offline?</t>
+  </si>
+  <si>
+    <t>https://jobs.bosch.de/</t>
+  </si>
+  <si>
+    <t>https://jobs.siemens.com/careers?location=germany&amp;pid=563156124122350&amp;domain=siemens.com&amp;sort_by=relevance&amp;triggerGoButton=false</t>
+  </si>
+  <si>
+    <t>https://www.tesla.com/careers/search/?site=DE&amp;type=1</t>
+  </si>
+  <si>
+    <t>https://careers.audi.com/desktop.html#/SEARCH/SIMPLE/</t>
+  </si>
+  <si>
+    <t>https://career.iav.com/en/</t>
+  </si>
+  <si>
+    <t>https://www.intenta-automotive.de/en/career.html</t>
+  </si>
+  <si>
+    <t>https://www.fdtech.de/career-and-jobs/#46fab92f5345</t>
+  </si>
+  <si>
+    <t>https://jobs.mercedes-benz.com/enUS</t>
+  </si>
+  <si>
+    <t>https://jobs.porsche.com/index.php?ac=search_result&amp;search_criterion_entry_level%5B%5D=5&amp;search_criterion_channel%5B%5D=12</t>
+  </si>
+  <si>
+    <t>https://jobs.fraunhofer.de/go/All-Job-Offers/5366301/</t>
+  </si>
+  <si>
+    <t>https://unicontrol.de/en/applicants</t>
+  </si>
+  <si>
+    <t>https://jobs.volkswagen-group.com/Volkswagen-Group-Services/search/?locale=de_DE</t>
+  </si>
+  <si>
+    <t>https://www.akkodis.com/en-us/careers/job-results</t>
+  </si>
+  <si>
+    <t>https://karriere.hoermann-gruppe.com/en/</t>
+  </si>
+  <si>
+    <t>https://www.edag.com/en/career/vacancies</t>
+  </si>
+  <si>
+    <t>https://www.bmwgroup.jobs/de/en.html</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +117,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,41 +441,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="124.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tu-chemnitz.de/career-service/jobboerse/index.php</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Could not reach host. Are you offline?</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poojitha Sri\Job_Docs\Git\NotifyCareerPortalsUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6608685-35C2-4E9C-9480-074EAAE77E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C97E516-43B6-4D56-8529-A7A98318E0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,73 +20,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>company</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>update</t>
   </si>
   <si>
-    <t>https://www.tu-chemnitz.de/career-service/jobboerse/index.php</t>
-  </si>
-  <si>
     <t>Could not reach host. Are you offline?</t>
   </si>
   <si>
-    <t>https://jobs.bosch.de/</t>
-  </si>
-  <si>
-    <t>https://jobs.siemens.com/careers?location=germany&amp;pid=563156124122350&amp;domain=siemens.com&amp;sort_by=relevance&amp;triggerGoButton=false</t>
-  </si>
-  <si>
-    <t>https://www.tesla.com/careers/search/?site=DE&amp;type=1</t>
-  </si>
-  <si>
-    <t>https://careers.audi.com/desktop.html#/SEARCH/SIMPLE/</t>
-  </si>
-  <si>
-    <t>https://career.iav.com/en/</t>
-  </si>
-  <si>
-    <t>https://www.intenta-automotive.de/en/career.html</t>
-  </si>
-  <si>
-    <t>https://www.fdtech.de/career-and-jobs/#46fab92f5345</t>
-  </si>
-  <si>
-    <t>https://jobs.mercedes-benz.com/enUS</t>
-  </si>
-  <si>
-    <t>https://jobs.porsche.com/index.php?ac=search_result&amp;search_criterion_entry_level%5B%5D=5&amp;search_criterion_channel%5B%5D=12</t>
-  </si>
-  <si>
-    <t>https://jobs.fraunhofer.de/go/All-Job-Offers/5366301/</t>
-  </si>
-  <si>
-    <t>https://unicontrol.de/en/applicants</t>
-  </si>
-  <si>
-    <t>https://jobs.volkswagen-group.com/Volkswagen-Group-Services/search/?locale=de_DE</t>
-  </si>
-  <si>
-    <t>https://www.akkodis.com/en-us/careers/job-results</t>
-  </si>
-  <si>
-    <t>https://karriere.hoermann-gruppe.com/en/</t>
-  </si>
-  <si>
-    <t>https://www.edag.com/en/career/vacancies</t>
-  </si>
-  <si>
-    <t>https://www.bmwgroup.jobs/de/en.html</t>
+    <t>Company_name</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>BOSCH</t>
+  </si>
+  <si>
+    <t>IAV</t>
+  </si>
+  <si>
+    <t>FDTECH</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>PORSCHE</t>
+  </si>
+  <si>
+    <t>TESLA</t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t>FRAUNHOFER</t>
+  </si>
+  <si>
+    <t>AKKODIS</t>
+  </si>
+  <si>
+    <t>EDAG</t>
+  </si>
+  <si>
+    <t>INTENTA</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>HOERMANN</t>
+  </si>
+  <si>
+    <t>TUC</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>UNICONTROL</t>
+  </si>
+  <si>
+    <t>https://jobs.siemens.com/careers?location=any&amp;pid=563156124196614&amp;domain=siemens.com&amp;sort_by=relevance&amp;triggerGoButton=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.bosch.de/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tu-chemnitz.de/career-service/jobboerse/index.php </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tesla.com/careers/search/?site=DE&amp;type=1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://careers.audi.com/desktop.html#/SEARCH/SIMPLE/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://career.iav.com/en/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.intenta-automotive.de/en/career.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fdtech.de/career-and-jobs/#46fab92f5345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.mercedes-benz.com/enUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.porsche.com/index.php?ac=search_result&amp;search_criterion_entry_level%5B%5D=5&amp;search_criterion_channel%5B%5D=12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.fraunhofer.de/go/All-Job-Offers/5366301/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unicontrol.de/en/applicants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.volkswagen-group.com/Volkswagen-Group-Services/search/?locale=de_DE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.akkodis.com/en-us/careers/job-results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://karriere.hoermann-gruppe.com/en/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.edag.com/en/career/vacancies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bmwgroup.jobs/de/en.html </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +152,22 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,16 +202,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,115 +516,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="124.6328125" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="124.6328125" customWidth="1"/>
+    <col min="3" max="3" width="50.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{8AB7CA27-42C7-4897-AB72-E947BFA94677}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CAF575D5-3F20-4465-970F-D8A433B0C303}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{72663E4D-D9A9-41C1-B572-D0BF8ACE9FAE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{A9822F02-0FB1-4566-B1B3-218C0DE22154}"/>
+    <hyperlink ref="B6" r:id="rId5" location="/SEARCH/SIMPLE/ " xr:uid="{5EA94F5B-A2A9-43D2-9E7E-E2F3CF2AEDC0}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{46AF2A31-F69A-4D47-9A45-6B2F1CBB196A}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{B5864CA3-FF91-436A-BAD1-2C90139A9B12}"/>
+    <hyperlink ref="B9" r:id="rId8" location="46fab92f5345 " xr:uid="{5C730DD3-12DD-4C4B-AF74-408625CDA08A}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{310DCF31-DF2F-4268-A6B0-AFE8419D6C34}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{FF46DAC7-7C44-4443-B926-A3E2B8DBB963}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{D4C3EA94-D5CD-4A18-8853-5566AF76F0E4}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{740A2FB5-F609-458F-8553-5DF35229E353}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{6994FA4D-0703-4DEB-A574-A56D01C8C2D3}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{07B0E0AC-F2EB-4874-887F-669E34FC1E81}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{969193DC-1E98-4465-8CF6-A69A8A8423D3}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{D1EE638A-1ABB-4E57-B02F-F3CE35D57B6C}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{55860669-A8A1-40A5-A78F-6C62F3518D35}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/list.xlsx
+++ b/list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poojitha Sri\Job_Docs\Git\NotifyCareerPortalsUpdate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ubuntu\home\ubuntu\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C97E516-43B6-4D56-8529-A7A98318E0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD5141F-A3BF-4A7D-AD57-5D010C6A6063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Companies_list" sheetId="1" r:id="rId1"/>
@@ -20,127 +20,172 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+  <si>
+    <t>Company_name</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
   <si>
     <t>update</t>
   </si>
   <si>
+    <t>TUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tu-chemnitz.de/career-service/jobboerse/index.php </t>
+  </si>
+  <si>
+    <t>jobadentry-category</t>
+  </si>
+  <si>
     <t>Could not reach host. Are you offline?</t>
   </si>
   <si>
-    <t>Company_name</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>BOSCH</t>
   </si>
   <si>
+    <t xml:space="preserve">https://jobs.bosch.de/ </t>
+  </si>
+  <si>
+    <t>relative grid w-full justify-between gap-4 overflow-hidden sm:grid-cols-[8fr_1fr]</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>https://jobs.siemens.com/careers?location=any&amp;pid=563156124196614&amp;domain=siemens.com&amp;sort_by=relevance&amp;triggerGoButton=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job-card-container list  </t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://careers.audi.com/desktop.html#/SEARCH/SIMPLE/ </t>
+  </si>
+  <si>
+    <t>listItem jobListItem</t>
+  </si>
+  <si>
     <t>IAV</t>
   </si>
   <si>
+    <t>https://career.iav.com/jobangebote/?fwp_jobs_search=</t>
+  </si>
+  <si>
+    <t>iav-search-list-item uk-width-1-1</t>
+  </si>
+  <si>
+    <t>no update</t>
+  </si>
+  <si>
+    <t>INTENTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.intenta-automotive.de/en/career.html </t>
+  </si>
+  <si>
+    <t>mod_newslist block</t>
+  </si>
+  <si>
     <t>FDTECH</t>
   </si>
   <si>
-    <t>SIEMENS</t>
+    <t xml:space="preserve">https://www.fdtech.de/career-and-jobs/#46fab92f5345 </t>
+  </si>
+  <si>
+    <t>flex border-b-4 border-[hsl(0,_0%,_94%)] pb-7 pt-8 justify-between flex-wrap lg:flex-nowrap gap-6</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
+  </si>
+  <si>
+    <t>https://jobs.mercedes-benz.com/enUS?enUS=&amp;PositionLocation.Country=%5B320%2C329%5D</t>
+  </si>
+  <si>
+    <t>mjp-result__card wb-grid-col hydrated</t>
   </si>
   <si>
     <t>PORSCHE</t>
   </si>
   <si>
-    <t>TESLA</t>
-  </si>
-  <si>
-    <t>AUDI</t>
+    <t xml:space="preserve">https://jobs.porsche.com/index.php?ac=search_result&amp;search_criterion_entry_level%5B%5D=5&amp;search_criterion_channel%5B%5D=12 </t>
+  </si>
+  <si>
+    <t>column-jobad-title break-word</t>
   </si>
   <si>
     <t>FRAUNHOFER</t>
   </si>
   <si>
+    <t xml:space="preserve">https://jobs.fraunhofer.de/go/All-Job-Offers/5366301/ </t>
+  </si>
+  <si>
+    <t>data-row</t>
+  </si>
+  <si>
+    <t>UNICONTROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unicontrol.de/en/applicants </t>
+  </si>
+  <si>
+    <t>job-listing</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jobs.volkswagen-group.com/Volkswagen-Group-Services/search/?locale=de_DE </t>
+  </si>
+  <si>
     <t>AKKODIS</t>
   </si>
   <si>
+    <t>https://www.akkodis.com/de-de/karriere/jobsuche</t>
+  </si>
+  <si>
+    <t>d-flex flex-column flex-lg-row JobSearchResults_filter-results-details__xBkVx</t>
+  </si>
+  <si>
+    <t>HOERMANN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://karriere.hoermann-gruppe.com/en/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">listTileContainer-i7p-6 </t>
+  </si>
+  <si>
     <t>EDAG</t>
   </si>
   <si>
-    <t>INTENTA</t>
-  </si>
-  <si>
-    <t>MERCEDES</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>HOERMANN</t>
-  </si>
-  <si>
-    <t>TUC</t>
+    <t xml:space="preserve">https://www.edag.com/en/career/vacancies </t>
+  </si>
+  <si>
+    <t>sfjob</t>
   </si>
   <si>
     <t>BMW</t>
   </si>
   <si>
-    <t>UNICONTROL</t>
-  </si>
-  <si>
-    <t>https://jobs.siemens.com/careers?location=any&amp;pid=563156124196614&amp;domain=siemens.com&amp;sort_by=relevance&amp;triggerGoButton=false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jobs.bosch.de/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tu-chemnitz.de/career-service/jobboerse/index.php </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tesla.com/careers/search/?site=DE&amp;type=1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://careers.audi.com/desktop.html#/SEARCH/SIMPLE/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://career.iav.com/en/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.intenta-automotive.de/en/career.html </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fdtech.de/career-and-jobs/#46fab92f5345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jobs.mercedes-benz.com/enUS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jobs.porsche.com/index.php?ac=search_result&amp;search_criterion_entry_level%5B%5D=5&amp;search_criterion_channel%5B%5D=12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jobs.fraunhofer.de/go/All-Job-Offers/5366301/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://unicontrol.de/en/applicants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jobs.volkswagen-group.com/Volkswagen-Group-Services/search/?locale=de_DE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.akkodis.com/en-us/careers/job-results </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://karriere.hoermann-gruppe.com/en/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.edag.com/en/career/vacancies </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.bmwgroup.jobs/de/en.html </t>
+  </si>
+  <si>
+    <t>grp-jobfinder__wrapper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,22 +197,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,20 +231,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,189 +541,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="124.6328125" customWidth="1"/>
-    <col min="3" max="3" width="50.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{8AB7CA27-42C7-4897-AB72-E947BFA94677}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CAF575D5-3F20-4465-970F-D8A433B0C303}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{72663E4D-D9A9-41C1-B572-D0BF8ACE9FAE}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{A9822F02-0FB1-4566-B1B3-218C0DE22154}"/>
-    <hyperlink ref="B6" r:id="rId5" location="/SEARCH/SIMPLE/ " xr:uid="{5EA94F5B-A2A9-43D2-9E7E-E2F3CF2AEDC0}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{46AF2A31-F69A-4D47-9A45-6B2F1CBB196A}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{B5864CA3-FF91-436A-BAD1-2C90139A9B12}"/>
-    <hyperlink ref="B9" r:id="rId8" location="46fab92f5345 " xr:uid="{5C730DD3-12DD-4C4B-AF74-408625CDA08A}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{310DCF31-DF2F-4268-A6B0-AFE8419D6C34}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{FF46DAC7-7C44-4443-B926-A3E2B8DBB963}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{D4C3EA94-D5CD-4A18-8853-5566AF76F0E4}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{740A2FB5-F609-458F-8553-5DF35229E353}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{6994FA4D-0703-4DEB-A574-A56D01C8C2D3}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{07B0E0AC-F2EB-4874-887F-669E34FC1E81}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{969193DC-1E98-4465-8CF6-A69A8A8423D3}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{D1EE638A-1ABB-4E57-B02F-F3CE35D57B6C}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{55860669-A8A1-40A5-A78F-6C62F3518D35}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>